--- a/leveaged_nasdaq_retio.xlsx
+++ b/leveaged_nasdaq_retio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9510" activeTab="1"/>
+    <workbookView windowWidth="20745" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -671,14 +684,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,30 +1025,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5047619047619" customWidth="1"/>
-    <col min="2" max="4" width="11.3428571428571" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.57142857142857" style="5"/>
+    <col min="2" max="4" width="11.3428571428571" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.57142857142857" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1038,22 +1056,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>1.167811</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1.183637</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1.238631</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>1.1137</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>1.215998</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>1.2901</v>
       </c>
     </row>
@@ -1061,22 +1079,22 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>1.528597</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1.731294</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1.922213</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>1.330615</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>1.659918</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>2.007265</v>
       </c>
     </row>
@@ -1084,22 +1102,22 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1.990559</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>2.189542</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2.462485</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>1.561518</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1.8727</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>2.704398</v>
       </c>
     </row>
@@ -1107,22 +1125,22 @@
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>3.490973</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>3.876197</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>4.147495</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>2.219689</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>2.091217</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>3.21923</v>
       </c>
     </row>
@@ -1130,22 +1148,22 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>8.454428</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>5.774139</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>1.884085</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>3.459588</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>5.137935</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>5.683815</v>
       </c>
     </row>
@@ -1153,27 +1171,27 @@
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>39.017608</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>53.980215</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>36.906213</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>9.46922</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>-33.655853</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>63.569483</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G7">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G7" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1186,14 +1204,16 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="7" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="4" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1209,7 +1229,7 @@
       <c r="D1">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>10</v>
       </c>
       <c r="F1">
@@ -1220,140 +1240,140 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1.238631</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1.922213</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>2.462485</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>4.147495</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>1.884085</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>36.906213</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.183637</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.659918</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.189542</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.876197</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.774139</v>
-      </c>
-      <c r="G3" s="2">
-        <v>53.980215</v>
+      <c r="B3" s="3">
+        <v>1.308603</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.088741</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.238604</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5.646508</v>
+      </c>
+      <c r="F3" s="9">
+        <v>12.541121</v>
+      </c>
+      <c r="G3" s="9">
+        <v>175.810688</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.167811</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.528597</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.990559</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.490973</v>
-      </c>
-      <c r="F4" s="3">
-        <v>8.454428</v>
-      </c>
-      <c r="G4" s="1">
-        <v>39.017608</v>
+      <c r="B4" s="3">
+        <v>1.164141</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.516343</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.003673</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3.47891</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8.56997</v>
+      </c>
+      <c r="G4" s="8">
+        <v>39.156817</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>1.2901</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="11">
         <v>2.007265</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="11">
         <v>2.704398</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>3.21923</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>5.683815</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="11">
         <v>63.569483</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>1.1137</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>1.330615</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>1.561518</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>2.219689</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>3.459588</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="7">
         <v>9.46922</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>1.215998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.731294</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>1.8727</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>2.091217</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>5.137935</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="7">
         <v>-33.655853</v>
       </c>
     </row>

--- a/leveaged_nasdaq_retio.xlsx
+++ b/leveaged_nasdaq_retio.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="9480" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,15 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+  <si>
+    <t>holding years</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
   <si>
     <t>holding year</t>
   </si>
   <si>
     <t>NDX</t>
-  </si>
-  <si>
-    <t>QLD</t>
   </si>
   <si>
     <t>TQQQ</t>
@@ -684,19 +692,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,62 +1022,218 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
+    <col min="2" max="3" width="8.42857142857143" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5714285714286" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.154869</v>
+      </c>
+      <c r="C2">
+        <v>1.286382</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B:B-1</f>
+        <v>0.154869</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C:C-1</f>
+        <v>0.286382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.271575</v>
+      </c>
+      <c r="C3">
+        <v>1.502462</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B:B-1</f>
+        <v>0.271575</v>
+      </c>
+      <c r="E3" s="9">
+        <f>C:C-1</f>
+        <v>0.502462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.497236</v>
+      </c>
+      <c r="C4">
+        <v>2.004382</v>
+      </c>
+      <c r="D4" s="9">
+        <f>B:B-1</f>
+        <v>0.497236</v>
+      </c>
+      <c r="E4" s="9">
+        <f>C:C-1</f>
+        <v>1.004382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.998126</v>
+      </c>
+      <c r="C5">
+        <v>3.159109</v>
+      </c>
+      <c r="D5" s="9">
+        <f>B:B-1</f>
+        <v>0.998126</v>
+      </c>
+      <c r="E5" s="9">
+        <f>C:C-1</f>
+        <v>2.159109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3.202664</v>
+      </c>
+      <c r="C6">
+        <v>6.443742</v>
+      </c>
+      <c r="D6" s="9">
+        <f>B:B-1</f>
+        <v>2.202664</v>
+      </c>
+      <c r="E6" s="9">
+        <f>C:C-1</f>
+        <v>5.443742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>11.333627</v>
+      </c>
+      <c r="C7">
+        <v>45.779256</v>
+      </c>
+      <c r="D7" s="9">
+        <f>B:B-1</f>
+        <v>10.333627</v>
+      </c>
+      <c r="E7" s="9">
+        <f>C:C-1</f>
+        <v>44.779256</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E7" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5047619047619" customWidth="1"/>
-    <col min="2" max="4" width="11.3428571428571" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.57142857142857" style="7"/>
+    <col min="2" max="4" width="11.3428571428571" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.57142857142857" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1.167811</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1.183637</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1.238631</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>1.1137</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="1">
         <v>1.215998</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="1">
         <v>1.2901</v>
       </c>
     </row>
@@ -1079,22 +1241,22 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1.528597</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1.731294</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>1.922213</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>1.330615</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="1">
         <v>1.659918</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="1">
         <v>2.007265</v>
       </c>
     </row>
@@ -1102,22 +1264,22 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1.990559</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2.189542</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>2.462485</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <v>1.561518</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="1">
         <v>1.8727</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="1">
         <v>2.704398</v>
       </c>
     </row>
@@ -1125,22 +1287,22 @@
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>3.490973</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>3.876197</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4.147495</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="1">
         <v>2.219689</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>2.091217</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>3.21923</v>
       </c>
     </row>
@@ -1148,22 +1310,22 @@
       <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>8.454428</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>5.774139</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.884085</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <v>3.459588</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>5.137935</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>5.683815</v>
       </c>
     </row>
@@ -1171,22 +1333,22 @@
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>39.017608</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>53.980215</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>36.906213</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>9.46922</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="1">
         <v>-33.655853</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>63.569483</v>
       </c>
     </row>
@@ -1199,26 +1361,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="4" width="14.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1240,140 +1402,140 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
         <v>1.238631</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1.922213</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>2.462485</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>4.147495</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1.884085</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>36.906213</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1.308603</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>2.088741</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>3.238604</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>5.646508</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>12.541121</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>175.810688</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <v>1.164141</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>1.516343</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>2.003673</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>3.47891</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>8.56997</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>39.156817</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.2901</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.007265</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.704398</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.21923</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.683815</v>
+      </c>
+      <c r="G5" s="4">
+        <v>63.569483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <v>1.2901</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2.007265</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2.704398</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.21923</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.683815</v>
-      </c>
-      <c r="G5" s="11">
-        <v>63.569483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="B6" s="1">
         <v>1.1137</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="1">
         <v>1.330615</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="1">
         <v>1.561518</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <v>2.219689</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="1">
         <v>3.459588</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="1">
         <v>9.46922</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
         <v>1.215998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1.731294</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="1">
         <v>1.8727</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>2.091217</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="1">
         <v>5.137935</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="1">
         <v>-33.655853</v>
       </c>
     </row>

--- a/leveaged_nasdaq_retio.xlsx
+++ b/leveaged_nasdaq_retio.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,21 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
-    <t>holding years</t>
+    <t>holding_years</t>
   </si>
   <si>
-    <t>QQQ</t>
+    <t>qqq_return</t>
   </si>
   <si>
-    <t>QLD</t>
+    <t>qld_return</t>
   </si>
   <si>
     <t>holding year</t>
   </si>
   <si>
     <t>NDX</t>
+  </si>
+  <si>
+    <t>QLD</t>
   </si>
   <si>
     <t>TQQQ</t>
@@ -73,10 +76,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,12 +448,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,137 +587,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
@@ -702,7 +727,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,154 +1055,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" customWidth="1"/>
-    <col min="2" max="3" width="8.42857142857143" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5714285714286" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="3" width="12.8571428571429" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="B2" s="13">
+        <v>0.170493821</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.320084142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.154869</v>
-      </c>
-      <c r="C2">
-        <v>1.286382</v>
-      </c>
-      <c r="D2" s="9">
-        <f>B:B-1</f>
-        <v>0.154869</v>
-      </c>
-      <c r="E2" s="9">
-        <f>C:C-1</f>
-        <v>0.286382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1.271575</v>
-      </c>
-      <c r="C3">
-        <v>1.502462</v>
-      </c>
-      <c r="D3" s="9">
-        <f>B:B-1</f>
-        <v>0.271575</v>
-      </c>
-      <c r="E3" s="9">
-        <f>C:C-1</f>
-        <v>0.502462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="B3" s="13">
+        <v>0.301433364</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.573226984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1.497236</v>
-      </c>
-      <c r="C4">
-        <v>2.004382</v>
-      </c>
-      <c r="D4" s="9">
-        <f>B:B-1</f>
-        <v>0.497236</v>
-      </c>
-      <c r="E4" s="9">
-        <f>C:C-1</f>
-        <v>1.004382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="B4" s="13">
+        <v>0.517408704</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.068050724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1.998126</v>
-      </c>
-      <c r="C5">
-        <v>3.159109</v>
-      </c>
-      <c r="D5" s="9">
-        <f>B:B-1</f>
-        <v>0.998126</v>
-      </c>
-      <c r="E5" s="9">
-        <f>C:C-1</f>
-        <v>2.159109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="B5" s="13">
+        <v>1.008892813</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.220708177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>3.202664</v>
-      </c>
-      <c r="C6">
-        <v>6.443742</v>
-      </c>
-      <c r="D6" s="9">
-        <f>B:B-1</f>
-        <v>2.202664</v>
-      </c>
-      <c r="E6" s="9">
-        <f>C:C-1</f>
-        <v>5.443742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="B6" s="13">
+        <v>2.588452448</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.332925451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4.680969985</v>
+      </c>
+      <c r="C7" s="13">
+        <v>8.71259835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>11.333627</v>
-      </c>
-      <c r="C7">
-        <v>45.779256</v>
-      </c>
-      <c r="D7" s="9">
-        <f>B:B-1</f>
-        <v>10.333627</v>
-      </c>
-      <c r="E7" s="9">
-        <f>C:C-1</f>
-        <v>44.779256</v>
+      <c r="B8" s="13">
+        <v>7.590608129</v>
+      </c>
+      <c r="C8" s="13">
+        <v>11.57277397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13">
+        <v>16.6854566</v>
+      </c>
+      <c r="C9" s="13">
+        <v>42.13431283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13">
+        <v>38.38820469</v>
+      </c>
+      <c r="C10" s="13">
+        <v>177.7129043</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E7" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1199,19 +1207,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1403,7 +1411,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>1.238631</v>
@@ -1426,7 +1434,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1.308603</v>
@@ -1472,7 +1480,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>1.2901</v>
@@ -1495,7 +1503,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1.1137</v>
@@ -1518,7 +1526,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>1.215998</v>
